--- a/Projects/NESTLEBEVUS/Data/Shelf Position Nestle RTD_1.1.xlsx
+++ b/Projects/NESTLEBEVUS/Data/Shelf Position Nestle RTD_1.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="5">
   <si>
     <t xml:space="preserve">Num Shelves</t>
   </si>
@@ -272,13 +272,13 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.4277777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="10.7277777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.3388888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.4666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,7 +369,9 @@
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="0"/>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="F4" s="0"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
